--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>RIDE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,38 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43921</v>
       </c>
       <c r="G7" s="2">
         <v>43830</v>
@@ -707,14 +707,17 @@
       <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,25 +825,26 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>300</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +964,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2600</v>
+        <v>40900</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>42000</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>19600</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1006,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-42000</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-19600</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-10000</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,28 +1052,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>-200</v>
       </c>
       <c r="G20" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2600</v>
+        <v>-38200</v>
       </c>
       <c r="E23" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1300</v>
-      </c>
       <c r="I23" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1138,25 +1183,28 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2600</v>
+        <v>-38200</v>
       </c>
       <c r="E26" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1000</v>
-      </c>
       <c r="I26" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2600</v>
+        <v>-38200</v>
       </c>
       <c r="E27" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1000</v>
-      </c>
       <c r="I27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,57 +1436,63 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2600</v>
+        <v>-38200</v>
       </c>
       <c r="E33" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1000</v>
-      </c>
       <c r="I33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,53 +1520,59 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2600</v>
+        <v>-38200</v>
       </c>
       <c r="E35" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1000</v>
-      </c>
       <c r="I35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
-      </c>
-      <c r="F38" s="2">
-        <v>43921</v>
       </c>
       <c r="G38" s="2">
         <v>43830</v>
@@ -1502,14 +1583,17 @@
       <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>629800</v>
       </c>
       <c r="E41" s="3">
-        <v>900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J41" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,25 +1681,28 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,153 +1745,171 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>24700</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>654400</v>
       </c>
       <c r="E46" s="3">
-        <v>900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J46" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>284000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>284300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>284300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>283600</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>282700</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>281600</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>280400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>101700</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>21700</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>11100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>284300</v>
+        <v>767200</v>
       </c>
       <c r="E54" s="3">
-        <v>285300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>285400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>284800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>284100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>283000</v>
-      </c>
-      <c r="J54" s="3">
+        <v>57400</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>281900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>34100</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2004,94 +2137,103 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>63500</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2200</v>
+        <v>34100</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
-      </c>
-      <c r="H60" s="3">
+        <v>101700</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2111,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>9800</v>
       </c>
-      <c r="E62" s="3">
-        <v>9800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12000</v>
+        <v>35100</v>
       </c>
       <c r="E66" s="3">
-        <v>10400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>10100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H66" s="3">
+        <v>102700</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>10000</v>
       </c>
-      <c r="I66" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>600</v>
+        <v>-110900</v>
       </c>
       <c r="E72" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J72" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>272300</v>
+        <v>732100</v>
       </c>
       <c r="E76" s="3">
-        <v>274900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>275300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>274700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>274000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>273100</v>
-      </c>
-      <c r="J76" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>272000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,24 +2747,27 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
-      </c>
-      <c r="F80" s="2">
-        <v>43921</v>
       </c>
       <c r="G80" s="2">
         <v>43830</v>
@@ -2587,43 +2778,49 @@
       <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2600</v>
+        <v>-38200</v>
       </c>
       <c r="E81" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1000</v>
-      </c>
       <c r="I81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="E89" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>400</v>
-      </c>
-      <c r="J94" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-280000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+        <v>697000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>281500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J102" s="3">
+        <v>610100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>RIDE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,67 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,8 +756,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +794,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +852,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>91800</v>
+      </c>
+      <c r="F12" s="3">
         <v>27700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>30000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>16000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>5600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1017,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>106200</v>
+      </c>
+      <c r="F17" s="3">
         <v>40900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>42000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>19600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1066,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-42000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-19600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,39 +1120,45 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-125200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1107,8 +1181,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1219,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38200</v>
+        <v>-108200</v>
       </c>
       <c r="E23" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-42500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-19800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1198,13 +1290,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-38200</v>
+        <v>-108200</v>
       </c>
       <c r="E26" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-42500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-19800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-10000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-38200</v>
+        <v>-108200</v>
       </c>
       <c r="E27" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-42500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-19800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-10000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,63 +1576,75 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-38200</v>
+        <v>-108200</v>
       </c>
       <c r="E33" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-42500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-19800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-10000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-38200</v>
+        <v>-108200</v>
       </c>
       <c r="E35" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-42500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-19800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-10000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,23 +1792,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>365900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>587000</v>
+      </c>
+      <c r="F41" s="3">
         <v>629800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,14 +1820,20 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1695,11 +1881,11 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,23 +1940,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F45" s="3">
         <v>24700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1774,29 +1972,35 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>385100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>613000</v>
+      </c>
+      <c r="F46" s="3">
         <v>654400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1806,14 +2010,20 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1839,28 +2049,34 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>280400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>286300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>154900</v>
+      </c>
+      <c r="F48" s="3">
         <v>101700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>21700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,14 +2086,20 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1887,11 +2109,11 @@
       <c r="E49" s="3">
         <v>11100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>11100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1902,14 +2124,20 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2206,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1998,14 +2238,20 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +2282,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>687300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>779100</v>
+      </c>
+      <c r="F54" s="3">
         <v>767200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>57400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2062,14 +2314,20 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>281900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,23 +2356,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F57" s="3">
         <v>34100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>32300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,29 +2384,35 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>63500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2154,29 +2422,35 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,29 +2460,35 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F60" s="3">
         <v>34100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>101700</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2218,28 +2498,34 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2256,40 +2542,52 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>101400</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>9800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,23 +2694,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35100</v>
+        <v>88300</v>
       </c>
       <c r="E66" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>136500</v>
+      </c>
+      <c r="G66" s="3">
         <v>102700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,14 +2726,20 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>10000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,23 +2900,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-110900</v>
+        <v>-367900</v>
       </c>
       <c r="E72" s="3">
+        <v>-259700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-134400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-72700</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,14 +2932,20 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,23 +3052,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>732100</v>
+        <v>599000</v>
       </c>
       <c r="E76" s="3">
+        <v>703300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>630700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-45300</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,14 +3084,20 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
         <v>272000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-38200</v>
+        <v>-108200</v>
       </c>
       <c r="E81" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-42500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-19800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-10000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,19 +3453,25 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-99900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-64000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3051,14 +3485,20 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3511,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-121300</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-54300</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,19 +3621,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-58200</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-121300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-52600</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3193,14 +3653,20 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-280000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,19 +3827,25 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>697000</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>83100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>726700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3367,14 +3859,20 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>281500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,20 +3903,26 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-221100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="F102" s="3">
         <v>610100</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,10 +3935,16 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>RIDE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,72 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
-        <v>43830</v>
-      </c>
       <c r="J7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -762,8 +767,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +808,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +849,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,35 +868,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E12" s="3">
         <v>76500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>91800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27700</v>
       </c>
-      <c r="G12" s="3">
-        <v>30000</v>
-      </c>
       <c r="H12" s="3">
+        <v>43200</v>
+      </c>
+      <c r="I12" s="3">
         <v>16000</v>
       </c>
-      <c r="I12" s="3">
-        <v>5600</v>
-      </c>
       <c r="J12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -892,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,31 +989,34 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+        <v>11100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1006,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1046,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E17" s="3">
         <v>110300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>106200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40900</v>
       </c>
-      <c r="G17" s="3">
-        <v>42000</v>
-      </c>
       <c r="H17" s="3">
+        <v>63900</v>
+      </c>
+      <c r="I17" s="3">
         <v>19600</v>
       </c>
-      <c r="I17" s="3">
-        <v>10000</v>
-      </c>
       <c r="J17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1097,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-110300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-106200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-40900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-42000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-19600</v>
       </c>
-      <c r="I18" s="3">
-        <v>-10000</v>
-      </c>
       <c r="J18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,37 +1155,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-19000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-500</v>
-      </c>
       <c r="H20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,22 +1196,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-125200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-11900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1187,8 +1225,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1266,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-108200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-125200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-42500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-19800</v>
       </c>
-      <c r="I23" s="3">
-        <v>-10000</v>
-      </c>
       <c r="J23" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1296,13 +1343,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-108200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-125200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-42500</v>
-      </c>
       <c r="H26" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-19800</v>
       </c>
-      <c r="I26" s="3">
-        <v>-10000</v>
-      </c>
       <c r="J26" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-108200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-125200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-61700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-42500</v>
-      </c>
       <c r="H27" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-19800</v>
       </c>
-      <c r="I27" s="3">
-        <v>-10000</v>
-      </c>
       <c r="J27" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,75 +1647,81 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>19000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20800</v>
       </c>
-      <c r="G32" s="3">
-        <v>500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-108200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-125200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-61700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-42500</v>
-      </c>
       <c r="H33" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-19800</v>
       </c>
-      <c r="I33" s="3">
-        <v>-10000</v>
-      </c>
       <c r="J33" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-108200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-125200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-61700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-42500</v>
-      </c>
       <c r="H35" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-19800</v>
       </c>
-      <c r="I35" s="3">
-        <v>-10000</v>
-      </c>
       <c r="J35" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
-        <v>43830</v>
-      </c>
       <c r="J38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,26 +1881,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E41" s="3">
         <v>365900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>587000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>629800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1826,14 +1914,17 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1961,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1887,8 +1981,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2002,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,26 +2043,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E45" s="3">
         <v>19200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1978,32 +2078,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>256700</v>
+      </c>
+      <c r="E46" s="3">
         <v>385100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>613000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>654400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2016,14 +2119,17 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2055,31 +2161,34 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>280400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>362400</v>
+      </c>
+      <c r="E48" s="3">
         <v>286300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>154900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>101700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2092,19 +2201,22 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>11100</v>
@@ -2115,8 +2227,8 @@
       <c r="G49" s="3">
         <v>11100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>11100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2130,14 +2242,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,26 +2330,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>4800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2244,14 +2365,17 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,26 +2412,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>623900</v>
+      </c>
+      <c r="E54" s="3">
         <v>687300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>779100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>767200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,14 +2447,17 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
         <v>281900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,26 +2489,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E57" s="3">
         <v>81400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>67000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,14 +2522,17 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2410,12 +2545,12 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>63500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,14 +2563,17 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2448,12 +2586,12 @@
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2466,32 +2604,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E60" s="3">
         <v>81400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>101700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2504,14 +2645,17 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>1000</v>
@@ -2528,7 +2672,7 @@
         <v>1000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2548,23 +2692,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E62" s="3">
         <v>6900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>101400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,20 +2721,23 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>9800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,26 +2856,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E66" s="3">
         <v>88300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>136500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,14 +2891,17 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3">
         <v>10000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,26 +3078,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-463700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-367900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-259700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,14 +3113,17 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,26 +3242,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>532500</v>
+      </c>
+      <c r="E76" s="3">
         <v>599000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>703300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>630700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-45300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3090,14 +3277,17 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3">
         <v>272000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
-        <v>43830</v>
-      </c>
       <c r="J80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-108200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-125200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-61700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-42500</v>
-      </c>
       <c r="H81" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-19800</v>
       </c>
-      <c r="I81" s="3">
-        <v>-10000</v>
-      </c>
       <c r="J81" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3469,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,31 +3674,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-99900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-71500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-64000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-7900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3491,14 +3709,17 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,20 +3734,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-121300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54300</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3761,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3551,8 +3773,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,31 +3855,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-121300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3659,14 +3890,17 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-280000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,31 +4077,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>22700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>83100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>726700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>50800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3865,14 +4112,17 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>281500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,31 +4159,34 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-132100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-221100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>610100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1700</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3941,10 +4194,13 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>RIDE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +773,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,8 +817,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,38 +881,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E12" s="3">
         <v>56900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>76500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>91800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>43200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -910,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,34 +1011,37 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>11100</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1033,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,49 +1072,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E17" s="3">
         <v>99300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>110300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>106200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1097,40 +1126,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-110300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-106200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-40900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-63900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,40 +1188,43 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,26 +1232,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-108200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-125200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-61700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-62300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,8 +1264,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,49 +1308,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-95800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-108200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-125200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-61700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-62300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1346,13 +1391,16 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-95800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-108200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-125200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-61700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-62300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-95800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-108200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-125200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-61700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-62300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1647,81 +1716,87 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-95800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-108200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-125200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-61700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-62300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-95800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-108200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-125200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-61700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-62300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,29 +1967,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E41" s="3">
         <v>233800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>365900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>587000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>629800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,14 +2003,17 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,8 +2053,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1984,8 +2076,8 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2005,8 +2097,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2046,29 +2141,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E45" s="3">
         <v>22900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,35 +2179,38 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>291100</v>
+      </c>
+      <c r="E46" s="3">
         <v>256700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>385100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>613000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>654400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,14 +2223,17 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2164,34 +2268,37 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>280400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>382700</v>
+      </c>
+      <c r="E48" s="3">
         <v>362400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>286300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>154900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>101700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,22 +2311,25 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>11100</v>
@@ -2230,8 +2340,8 @@
       <c r="H49" s="3">
         <v>11100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>11100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2245,14 +2355,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,29 +2449,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4800</v>
+        <v>13900</v>
       </c>
       <c r="E52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>4800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,14 +2487,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,29 +2537,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>688800</v>
+      </c>
+      <c r="E54" s="3">
         <v>623900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>687300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>779100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>767200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,14 +2575,17 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3">
         <v>281900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,29 +2619,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E57" s="3">
         <v>87900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>81400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>67000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,14 +2655,17 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2548,12 +2681,12 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>63500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,19 +2699,22 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>135500</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2589,12 +2725,12 @@
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,35 +2743,38 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E60" s="3">
         <v>87900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>67000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>101700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,14 +2787,17 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2666,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>1000</v>
@@ -2675,7 +2817,7 @@
         <v>1000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2695,26 +2837,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>3500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>101400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2724,20 +2869,23 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>9800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,29 +3013,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E66" s="3">
         <v>91400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>88300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>136500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,14 +3051,17 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
         <v>10000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,29 +3251,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-544800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-463700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-367900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-259700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-134400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,14 +3289,17 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
         <v>300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,29 +3427,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>539600</v>
+      </c>
+      <c r="E76" s="3">
         <v>532500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>599000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>703300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>630700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-45300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,14 +3465,17 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3">
         <v>272000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-95800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-108200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-125200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-61700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-62300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3472,8 +3670,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-74900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-99900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-71500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-64000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-35600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,23 +3954,24 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-79900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-121300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3764,8 +3984,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3776,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,34 +4084,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-79900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-121300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-52600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>2400</v>
       </c>
       <c r="I94" s="3">
         <v>2400</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3893,14 +4122,17 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-280000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,49 +4322,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>181900</v>
+      </c>
+      <c r="E100" s="3">
         <v>22700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>83100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>726700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>50800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>281500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,45 +4410,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-132100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-221100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-42700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>610100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>RIDE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,8 +780,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +827,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +874,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,41 +895,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E12" s="3">
         <v>58800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>56900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>76500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>91800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>43200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,37 +1034,40 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>11100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,52 +1099,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E17" s="3">
         <v>84700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>110300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>106200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,43 +1156,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-99300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-110300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-106200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-40900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-63900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1191,40 +1225,43 @@
         <v>3500</v>
       </c>
       <c r="F20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,29 +1269,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-84700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-108200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-125200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-61700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-62300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,8 +1304,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,52 +1351,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-81200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-95800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-108200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-125200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-61700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-62300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1394,13 +1440,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-81200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-95800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-108200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-125200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-61700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-62300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-81200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-95800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-108200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-125200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-61700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-62300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1719,84 +1789,90 @@
         <v>-3500</v>
       </c>
       <c r="F32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-81200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-95800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-108200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-125200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-61700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-62300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-81200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-95800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-108200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-125200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-61700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-62300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,32 +2054,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>203600</v>
+      </c>
+      <c r="E41" s="3">
         <v>244000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>233800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>365900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>587000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>629800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2006,14 +2093,17 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,13 +2146,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2079,8 +2172,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2100,8 +2193,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,32 +2240,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E45" s="3">
         <v>47100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2182,38 +2281,41 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>237900</v>
+      </c>
+      <c r="E46" s="3">
         <v>291100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>256700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>385100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>613000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>654400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,14 +2328,17 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2271,37 +2376,40 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>280400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>407800</v>
+      </c>
+      <c r="E48" s="3">
         <v>382700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>362400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>286300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>154900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>101700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2314,14 +2422,17 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2329,10 +2440,10 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>11100</v>
@@ -2343,8 +2454,8 @@
       <c r="I49" s="3">
         <v>11100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>11100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2358,14 +2469,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,32 +2569,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E52" s="3">
         <v>13900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4800</v>
       </c>
       <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>4800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,14 +2610,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,32 +2663,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>660800</v>
+      </c>
+      <c r="E54" s="3">
         <v>688800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>623900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>687300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>779100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>767200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,14 +2704,17 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
         <v>281900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,32 +2750,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E57" s="3">
         <v>12100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>87900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>81400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>67000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2658,14 +2789,17 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2684,12 +2818,12 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>63500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,23 +2836,26 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>189300</v>
+      </c>
+      <c r="E59" s="3">
         <v>135500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,12 +2865,12 @@
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2746,38 +2883,41 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E60" s="3">
         <v>147600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>87900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>67000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,14 +2930,17 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2811,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>1000</v>
@@ -2820,7 +2963,7 @@
         <v>1000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2840,29 +2983,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>101400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,20 +3018,23 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>9800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,32 +3171,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E66" s="3">
         <v>149200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>88300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>136500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,14 +3212,17 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>10000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,32 +3425,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-634400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-544800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-463700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-367900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-259700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-134400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-72700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3292,14 +3466,17 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
         <v>300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,32 +3613,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>454500</v>
+      </c>
+      <c r="E76" s="3">
         <v>539600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>532500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>599000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>703300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>630700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-45300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,14 +3654,17 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
         <v>272000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-81200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-95800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-108200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-125200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-61700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-62300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-141800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-74900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-99900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-71500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-64000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,26 +4175,27 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-79900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-121300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3987,8 +4208,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3999,8 +4220,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,37 +4314,40 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-79900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-121300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>2400</v>
       </c>
       <c r="J94" s="3">
         <v>2400</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4125,14 +4355,17 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-280000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4568,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E100" s="3">
         <v>181900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>83100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>726700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>50800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>281500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4662,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="E102" s="3">
         <v>10200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-132100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-221100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-42700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>610100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>RIDE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,83 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +787,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,8 +837,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +887,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,44 +909,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E12" s="3">
         <v>61900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>58800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>56900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>76500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>91800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>43200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -943,8 +957,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1007,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,40 +1057,43 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>11100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,55 +1126,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E17" s="3">
         <v>87900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>84700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>99300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>110300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>106200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1156,46 +1186,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-87900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-84700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-99300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-110300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-106200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-40900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-63900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,8 +1246,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,46 +1256,49 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>3500</v>
+        <v>-1800</v>
       </c>
       <c r="F20" s="3">
         <v>3500</v>
       </c>
       <c r="G20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1269,32 +1306,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-81200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-84700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-108200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-125200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-61700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-62300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1344,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,55 +1394,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-89600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-81200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-95800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-108200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-125200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-61700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-62300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,13 +1489,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-89600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-81200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-95800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-108200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-125200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-61700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-62300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-89600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-81200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-95800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-108200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-125200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-61700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-62300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,8 +1844,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1786,93 +1856,99 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-3500</v>
+        <v>1800</v>
       </c>
       <c r="F32" s="3">
         <v>-3500</v>
       </c>
       <c r="G32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-89600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-81200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-95800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-108200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-125200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-61700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-62300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-89600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-81200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-95800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-108200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-125200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-61700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-62300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,35 +2141,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>235700</v>
+      </c>
+      <c r="E41" s="3">
         <v>203600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>244000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>233800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>365900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>587000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>629800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,14 +2183,17 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,16 +2239,19 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2175,8 +2268,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2196,31 +2289,34 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2243,35 +2339,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E45" s="3">
         <v>34400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,41 +2383,44 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>282800</v>
+      </c>
+      <c r="E46" s="3">
         <v>237900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>291100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>256700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>385100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>613000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>654400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,14 +2433,17 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2379,40 +2484,43 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>280400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E48" s="3">
         <v>407800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>382700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>362400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>286300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>154900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>101700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,14 +2533,17 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2443,10 +2554,10 @@
         <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>11100</v>
@@ -2457,8 +2568,8 @@
       <c r="J49" s="3">
         <v>11100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>11100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2472,14 +2583,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,35 +2689,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E52" s="3">
         <v>14000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4800</v>
       </c>
       <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>4800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,14 +2733,17 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,35 +2789,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>598200</v>
+      </c>
+      <c r="E54" s="3">
         <v>660800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>688800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>623900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>687300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>779100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>767200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,14 +2833,17 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3">
         <v>281900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,35 +2881,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E57" s="3">
         <v>13800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>87900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>81400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>67000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,19 +2923,22 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>13500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2821,12 +2955,12 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>63500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,26 +2973,29 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E59" s="3">
         <v>189300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>135500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2868,12 +3005,12 @@
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2886,41 +3023,44 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E60" s="3">
         <v>203100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>147600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>87900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>81400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>67000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,14 +3073,17 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2957,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>1000</v>
@@ -2966,7 +3109,7 @@
         <v>1000</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2986,32 +3129,35 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>101400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3021,20 +3167,23 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>9800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,35 +3329,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E66" s="3">
         <v>206200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>149200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>88300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>75800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>136500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3215,14 +3373,17 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3">
         <v>10000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,35 +3599,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-570800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-634400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-544800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-463700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-367900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-259700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-134400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-72700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,14 +3643,17 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3">
         <v>300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,35 +3799,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>535800</v>
+      </c>
+      <c r="E76" s="3">
         <v>454500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>539600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>532500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>599000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>703300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>630700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-45300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3657,14 +3843,17 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3">
         <v>272000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-89600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-81200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-95800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-108200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-125200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-61700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-62300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4026,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3875,8 +4074,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-69000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-141800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-74900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-99900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-71500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-64000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,29 +4396,30 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-79900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-121300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4211,8 +4432,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4223,8 +4444,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,40 +4544,43 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-79900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-121300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>2400</v>
       </c>
       <c r="K94" s="3">
         <v>2400</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4358,14 +4588,17 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-280000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,55 +4814,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E100" s="3">
         <v>50500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>181900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>83100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>726700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>50800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>281500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,51 +4914,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-132100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-221100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-42700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>610100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>RIDE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,87 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,8 +794,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,8 +847,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +900,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,47 +923,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E12" s="3">
         <v>10500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>61900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>58800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>56900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>76500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>91800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>43200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -960,8 +974,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,31 +1027,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>74900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1060,8 +1080,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1071,32 +1094,32 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>11100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,58 +1153,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E17" s="3">
         <v>-61300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>87900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>84700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>110300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>106200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1186,49 +1216,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>61300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-87900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-84700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-99300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-110300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-106200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-40900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-63900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,8 +1280,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,49 +1290,52 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3500</v>
       </c>
       <c r="G20" s="3">
         <v>3500</v>
       </c>
       <c r="H20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,35 +1343,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>63700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-89600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-81200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-84700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-108200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-125200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-61700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-62300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1384,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,58 +1437,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="E23" s="3">
         <v>63700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-89600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-81200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-95800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-108200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-125200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-61700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-62300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1492,13 +1538,16 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="E26" s="3">
         <v>63700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-89600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-81200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-95800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-108200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-125200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-61700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-62300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="E27" s="3">
         <v>63700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-89600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-81200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-95800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-108200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-125200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-61700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-62300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,8 +1914,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1856,99 +1926,105 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-3500</v>
       </c>
       <c r="G32" s="3">
         <v>-3500</v>
       </c>
       <c r="H32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="E33" s="3">
         <v>63700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-89600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-81200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-95800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-108200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-125200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-61700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-62300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="E35" s="3">
         <v>63700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-89600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-81200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-95800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-108200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-125200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-61700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-62300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,38 +2228,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E41" s="3">
         <v>235700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>203600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>244000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>233800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>365900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>587000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>629800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,37 +2273,40 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>49300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2242,8 +2332,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2253,8 +2346,8 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2271,8 +2364,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2292,17 +2385,20 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E44" s="3">
         <v>4000</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2414,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2342,38 +2438,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E45" s="3">
         <v>43100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,44 +2485,47 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>252200</v>
+      </c>
+      <c r="E46" s="3">
         <v>282800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>237900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>291100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>256700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>385100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>613000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>654400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,14 +2538,17 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,43 +2592,46 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>280400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E48" s="3">
         <v>286900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>407800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>382700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>362400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>286300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>154900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>101700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,14 +2644,17 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2557,10 +2668,10 @@
         <v>1000</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>11100</v>
@@ -2571,8 +2682,8 @@
       <c r="K49" s="3">
         <v>11100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>11100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2586,14 +2697,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,38 +2809,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E52" s="3">
         <v>27500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4800</v>
       </c>
       <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>4800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,14 +2856,17 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,38 +2915,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>501100</v>
+      </c>
+      <c r="E54" s="3">
         <v>598200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>660800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>688800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>623900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>687300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>779100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>767200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,14 +2962,17 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3">
         <v>281900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,38 +3012,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E57" s="3">
         <v>13000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>87900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>81400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>67000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,22 +3057,25 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>13500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>13500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2958,12 +3092,12 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>63500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2976,29 +3110,32 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>34400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>189300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>135500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3008,12 +3145,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3026,44 +3163,47 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E60" s="3">
         <v>60800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>203100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>147600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>87900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>67000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3076,14 +3216,17 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3103,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>1000</v>
@@ -3112,7 +3255,7 @@
         <v>1000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3132,35 +3275,38 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>101400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,20 +3316,23 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>9800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,38 +3487,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E66" s="3">
         <v>62400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>206200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>149200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>88300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>136500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3376,14 +3534,17 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3">
         <v>10000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,38 +3773,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-725200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-570800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-634400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-544800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-463700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-367900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-259700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-134400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-72700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,14 +3820,17 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3">
         <v>300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,38 +3985,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>412400</v>
+      </c>
+      <c r="E76" s="3">
         <v>535800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>454500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>539600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>532500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>599000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>703300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>630700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-45300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,14 +4032,17 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3">
         <v>272000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="E81" s="3">
         <v>63700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-89600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-81200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-95800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-108200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-125200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-61700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-62300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,8 +4225,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4077,8 +4276,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-52400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-69000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-141800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-74900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-99900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-71500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-64000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-35600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,32 +4617,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-79900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-121300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4435,8 +4656,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4447,8 +4668,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,43 +4774,46 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E94" s="3">
         <v>5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-79900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-121300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52600</v>
-      </c>
-      <c r="K94" s="3">
-        <v>2400</v>
       </c>
       <c r="L94" s="3">
         <v>2400</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4591,14 +4821,17 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
         <v>-280000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,58 +5060,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E100" s="3">
         <v>78600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>50500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>181900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>83100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>726700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>50800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>281500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4917,54 +5166,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-81500</v>
+      </c>
+      <c r="E102" s="3">
         <v>32100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-132100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-221100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-42700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>610100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>RIDE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,95 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -797,13 +800,16 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>30000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -850,13 +856,16 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-29800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -903,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,50 +936,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E12" s="3">
         <v>19800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>61900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>58800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>56900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>76500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>91800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>43200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,17 +1046,20 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E14" s="3">
         <v>74900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1075,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1083,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1097,32 +1119,32 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>11100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1136,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>206100</v>
+      </c>
+      <c r="E17" s="3">
         <v>154800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-61300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>87900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>84700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>110300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>106200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-205900</v>
       </c>
       <c r="E18" s="3">
+        <v>-154800</v>
+      </c>
+      <c r="F18" s="3">
         <v>61300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-87900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-84700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-99300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-110300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-106200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-40900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-63900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,100 +1313,104 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>103900</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3500</v>
       </c>
       <c r="H20" s="3">
         <v>3500</v>
       </c>
       <c r="I20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-93500</v>
       </c>
       <c r="E21" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="F21" s="3">
         <v>63700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-89600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-81200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-84700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-108200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-125200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-61700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-62300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1423,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,61 +1479,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-154400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>63700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-89600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-81200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-95800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-108200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-125200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-62300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1541,13 +1586,16 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-154400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>63700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-89600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-81200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-95800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-108200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-125200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-62300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-154400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>63700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-89600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-81200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-95800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-108200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-125200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-61700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-62300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-103900</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-3500</v>
       </c>
       <c r="H32" s="3">
         <v>-3500</v>
       </c>
       <c r="I32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-154400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>63700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-89600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-81200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-95800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-108200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-125200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-61700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-62300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-154400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>63700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-89600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-81200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-95800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-108200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-125200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-61700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-62300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,41 +2314,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E41" s="3">
         <v>154200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>235700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>203600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>244000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>233800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>365900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>587000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>629800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,23 +2362,26 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E42" s="3">
         <v>49300</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,8 +2397,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2335,8 +2424,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2349,8 +2441,8 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2367,8 +2459,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2388,20 +2480,23 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E44" s="3">
         <v>11200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2417,8 +2512,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2441,41 +2536,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E45" s="3">
         <v>37500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,47 +2586,50 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>255900</v>
+      </c>
+      <c r="E46" s="3">
         <v>252200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>282800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>237900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>291100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>256700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>385100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>613000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>654400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,14 +2642,17 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2595,46 +2699,49 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>280400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>193800</v>
+      </c>
+      <c r="E48" s="3">
         <v>220000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>286900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>407800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>382700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>362400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>286300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>154900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>101700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,19 +2754,22 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -2671,10 +2781,10 @@
         <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>11100</v>
@@ -2685,8 +2795,8 @@
       <c r="L49" s="3">
         <v>11100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>11100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2700,14 +2810,17 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,41 +2928,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>27900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4800</v>
       </c>
       <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>4800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,14 +2978,17 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,41 +3040,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>452300</v>
+      </c>
+      <c r="E54" s="3">
         <v>501100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>598200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>660800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>688800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>623900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>687300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>779100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>767200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,14 +3090,17 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3">
         <v>281900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,41 +3142,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E57" s="3">
         <v>72600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>87900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>81400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>67000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,25 +3190,28 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>13500</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>13500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>13500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -3095,12 +3228,12 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>63500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3113,32 +3246,35 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
         <v>34400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>189300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>135500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3148,12 +3284,12 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,47 +3302,50 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E60" s="3">
         <v>86100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>203100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>147600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>87900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>101700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,14 +3358,17 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3249,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>1000</v>
@@ -3258,7 +3400,7 @@
         <v>1000</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3278,38 +3420,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3319,20 +3464,23 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>9800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,41 +3644,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E66" s="3">
         <v>88600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>206200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>149200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>91400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>88300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>75800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>136500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,14 +3694,17 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3">
         <v>10000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,13 +3834,16 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>30300</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3723,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,41 +3946,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-827200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-725200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-570800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-634400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-544800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-463700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-367900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-259700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-72700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,14 +3996,17 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3">
         <v>300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,41 +4170,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>351800</v>
+      </c>
+      <c r="E76" s="3">
         <v>412400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>535800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>454500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>539600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>532500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>599000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>703300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>630700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-45300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,14 +4220,17 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3">
         <v>272000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-154400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>63700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-89600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-81200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-95800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-108200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-125200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-61700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-62300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4279,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-52400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-69000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-141800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-74900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-99900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-71500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-64000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,35 +4837,36 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-79900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-121300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4659,8 +4879,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4671,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,46 +5003,49 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-79900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-121300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52600</v>
-      </c>
-      <c r="L94" s="3">
-        <v>2400</v>
       </c>
       <c r="M94" s="3">
         <v>2400</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4824,14 +5053,17 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3">
         <v>-280000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E100" s="3">
         <v>26700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>78600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>50500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>181900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>83100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>726700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>50800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
         <v>281500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5169,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-81500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-40500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-132100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-221100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-42700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>610100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RIDE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>RIDE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -756,7 +760,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -803,17 +807,20 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E9" s="3">
         <v>30000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,17 +866,20 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-29800</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,8 +925,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,53 +950,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E12" s="3">
         <v>15600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>61900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>58800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>56900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>76500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>91800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>43200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,20 +1066,23 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E14" s="3">
         <v>36500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>74900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1078,8 +1098,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1105,8 +1125,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1122,32 +1145,32 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>11100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174400</v>
+      </c>
+      <c r="E17" s="3">
         <v>206100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>154800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-61300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>87900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>84700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>99300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>110300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-174200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-205900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-154800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>61300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-87900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-84700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-99300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-110300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-106200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-40900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-63900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,106 +1347,110 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>103900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3500</v>
       </c>
       <c r="I20" s="3">
         <v>3500</v>
       </c>
       <c r="J20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-93500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-154400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>63700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-89600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-81200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-84700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-108200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-125200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-61700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-62300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1426,8 +1463,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,64 +1522,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-171700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-102000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-154400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>63700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-89600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-81200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-95800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-108200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-125200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-61700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-62300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1589,13 +1635,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-171700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-102000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-154400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>63700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-89600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-81200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-95800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-108200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-125200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-62300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-102000</v>
+        <v>-171100</v>
       </c>
       <c r="E27" s="3">
+        <v>-102300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-154400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>63700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-89600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-81200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-95800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-108200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-125200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-61700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-62300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-103900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3500</v>
       </c>
       <c r="I32" s="3">
         <v>-3500</v>
       </c>
       <c r="J32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-102000</v>
+        <v>-171100</v>
       </c>
       <c r="E33" s="3">
+        <v>-102300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-154400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>63700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-89600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-81200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-95800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-108200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-125200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-61700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-62300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-102000</v>
+        <v>-171100</v>
       </c>
       <c r="E35" s="3">
+        <v>-102300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-154400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>63700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-89600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-81200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-95800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-108200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-125200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-61700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-62300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,44 +2401,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E41" s="3">
         <v>121400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>154200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>235700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>203600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>244000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>233800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>365900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>587000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>629800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,26 +2452,29 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E42" s="3">
         <v>100300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>49300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2400,8 +2490,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2427,8 +2517,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2444,8 +2537,8 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2462,8 +2555,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2483,23 +2576,26 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E44" s="3">
         <v>13700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2515,8 +2611,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2539,44 +2635,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="3">
         <v>20500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,50 +2688,53 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E46" s="3">
         <v>255900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>252200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>282800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>237900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>291100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>256700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>385100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>613000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>654400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2645,14 +2747,17 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2702,49 +2807,52 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>280400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E48" s="3">
         <v>193800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>220000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>286900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>407800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>382700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>362400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>286300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>154900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>101700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2757,22 +2865,25 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>1000</v>
@@ -2784,10 +2895,10 @@
         <v>1000</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J49" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>11100</v>
@@ -2798,8 +2909,8 @@
       <c r="M49" s="3">
         <v>11100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>11100</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2813,14 +2924,17 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,44 +3048,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4800</v>
       </c>
       <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>4800</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,14 +3101,17 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,44 +3166,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>272400</v>
+      </c>
+      <c r="E54" s="3">
         <v>452300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>501100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>598200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>660800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>688800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>623900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>687300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>779100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>767200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,14 +3219,17 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3">
         <v>281900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,44 +3273,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E57" s="3">
         <v>12800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>72600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>87900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>81400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>67000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3193,28 +3324,31 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>13500</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>13500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>13500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -3231,12 +3365,12 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>63500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3249,35 +3383,38 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E59" s="3">
         <v>56000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
         <v>34400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>189300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>135500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3287,12 +3424,12 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3305,50 +3442,53 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E60" s="3">
         <v>68800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>86100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>203100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>147600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>87900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>81400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>101700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3361,14 +3501,17 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3394,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>1000</v>
@@ -3403,7 +3546,7 @@
         <v>1000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3423,41 +3566,44 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3467,20 +3613,23 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>9800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,44 +3802,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E66" s="3">
         <v>70300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>88600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>206200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>149200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>91400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>88300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>136500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3697,14 +3855,17 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3">
         <v>10000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,17 +4002,20 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E70" s="3">
         <v>30300</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,44 +4120,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-998900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-827200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-725200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-570800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-634400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-544800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-463700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-367900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-259700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-72700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,14 +4173,17 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3">
         <v>300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,44 +4356,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E76" s="3">
         <v>351800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>412400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>535800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>454500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>539600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>532500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>599000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>703300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>630700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-45300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4223,14 +4409,17 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3">
         <v>272000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-102000</v>
+        <v>-171100</v>
       </c>
       <c r="E81" s="3">
+        <v>-102300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-154400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>63700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-89600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-81200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-95800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-108200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-125200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-61700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-62300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,31 +4622,32 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>7700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4480,8 +4679,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-69000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-141800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-74900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-99900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-71500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-64000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-35600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,38 +5058,39 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4000</v>
+        <v>-30200</v>
       </c>
       <c r="E91" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-10500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-29000</v>
-      </c>
       <c r="I91" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-79900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-121300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4882,8 +5103,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4894,8 +5115,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,49 +5233,52 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-79900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-121300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-52600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>2400</v>
       </c>
       <c r="N94" s="3">
         <v>2400</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5056,14 +5286,17 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3">
         <v>-280000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5551,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>50200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>26700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>78600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>50500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>181900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>83100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>726700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>50800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3">
         <v>281500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-81500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-132100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-221100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-42700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>610100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
